--- a/GMM/Recommendations.xlsx
+++ b/GMM/Recommendations.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghazalerfani/Documents/GitHub/SocialMedia-Music/GMM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oldye\Documents\CMU_2018\Summer2019\Capstone\Github\SocialMedia-Music\GMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A57379-F56F-B44F-84FD-920699AF5FC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC05946-30AA-4BAB-8C01-4EEE8B26DEE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15780" xr2:uid="{260C4063-3C72-0246-B3FA-539BF57E2F02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{260C4063-3C72-0246-B3FA-539BF57E2F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>Rock</t>
   </si>
@@ -139,20 +139,47 @@
     <t>Calvin Harris</t>
   </si>
   <si>
-    <t>Post shorter posts</t>
-  </si>
-  <si>
-    <t>Post fewer posts</t>
-  </si>
-  <si>
     <t>Recommendations for Low SES Artists</t>
+  </si>
+  <si>
+    <t>maybe slightly better on FB</t>
+  </si>
+  <si>
+    <t>Less weighted to twitter.  More Instagram, then FB</t>
+  </si>
+  <si>
+    <t>Heavily weighted Twitter</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Focused Q3,Q4</t>
+  </si>
+  <si>
+    <t>Focused Q3,Q2</t>
+  </si>
+  <si>
+    <t>65% photos</t>
+  </si>
+  <si>
+    <t>40% photos.  Too high on links</t>
+  </si>
+  <si>
+    <t>Post more on non-Twitter</t>
+  </si>
+  <si>
+    <t>Try posting more in the late morning</t>
+  </si>
+  <si>
+    <t>Post fewer &amp; shorter posts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +203,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,10 +228,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -205,18 +240,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,30 +570,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F869543-759E-8641-95B8-0B5959D3FF8D}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.69921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="18.296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.19921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.69921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -592,8 +637,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -633,8 +678,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -672,8 +717,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -685,9 +730,36 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
@@ -697,35 +769,103 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:13" ht="31.8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:13" ht="31.8" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/GMM/Recommendations.xlsx
+++ b/GMM/Recommendations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oldye\Documents\CMU_2018\Summer2019\Capstone\Github\SocialMedia-Music\GMM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC05946-30AA-4BAB-8C01-4EEE8B26DEE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6444656-D1DD-4D24-8EB6-A778C907683B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{260C4063-3C72-0246-B3FA-539BF57E2F02}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{260C4063-3C72-0246-B3FA-539BF57E2F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Rock</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Post fewer &amp; shorter posts</t>
+  </si>
+  <si>
+    <t>Calvin Harris: increase normalized post length from -1.48 to -1.21 would decrease normalized SES from 0.165 to 0.116</t>
   </si>
 </sst>
 </file>
@@ -243,17 +246,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,30 +576,30 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.19921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.69921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.69921875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.796875" style="1"/>
+    <col min="9" max="9" width="18.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -637,8 +640,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -678,8 +681,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -717,8 +720,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -758,8 +761,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
@@ -791,13 +794,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:13" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" ht="31.8" x14ac:dyDescent="0.35">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -805,17 +808,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="31.8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -823,49 +829,49 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/GMM/Recommendations.xlsx
+++ b/GMM/Recommendations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurij/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6444656-D1DD-4D24-8EB6-A778C907683B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71F41CB-F6C8-1448-BB34-2D76A4C8BC46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{260C4063-3C72-0246-B3FA-539BF57E2F02}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{260C4063-3C72-0246-B3FA-539BF57E2F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Rock</t>
   </si>
@@ -176,6 +176,45 @@
   </si>
   <si>
     <t>Calvin Harris: increase normalized post length from -1.48 to -1.21 would decrease normalized SES from 0.165 to 0.116</t>
+  </si>
+  <si>
+    <t>% Postive FB Posts</t>
+  </si>
+  <si>
+    <t>% Neutral FB Posts</t>
+  </si>
+  <si>
+    <t>% Negative FB Posts</t>
+  </si>
+  <si>
+    <t>% Positive Tweets</t>
+  </si>
+  <si>
+    <t>% Neutral Tweets</t>
+  </si>
+  <si>
+    <t>% Negative Tweets</t>
+  </si>
+  <si>
+    <t>Twenty One Pilots</t>
+  </si>
+  <si>
+    <t>The Neighbourhood</t>
+  </si>
+  <si>
+    <t>Harry Styles</t>
+  </si>
+  <si>
+    <t>Kygo</t>
+  </si>
+  <si>
+    <t>Martin Garrix</t>
+  </si>
+  <si>
+    <t>Post more positive and less neutral posts on Facebook as well as Twitter</t>
+  </si>
+  <si>
+    <t>Post fewer negative tweets</t>
   </si>
 </sst>
 </file>
@@ -235,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -257,6 +296,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -573,33 +615,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F869543-759E-8641-95B8-0B5959D3FF8D}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.75" style="1"/>
+    <col min="9" max="9" width="18.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -640,7 +682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -681,7 +723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -720,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -761,7 +803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -794,79 +836,260 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="40.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="32.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="35" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="J9" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="L9" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1">
+        <v>83.3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>64.3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="35" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="1">
+        <v>55.6</v>
+      </c>
+      <c r="J11" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>50</v>
+      </c>
+      <c r="M11" s="1">
+        <v>50</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>87.5</v>
+      </c>
+      <c r="M12" s="8">
+        <v>11.7</v>
+      </c>
+      <c r="N12" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="M14" s="8">
+        <v>19</v>
+      </c>
+      <c r="N14" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="1">
+        <v>50</v>
+      </c>
+      <c r="J15" s="1">
+        <v>50</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>77.8</v>
+      </c>
+      <c r="M15" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="1">
+        <v>80</v>
+      </c>
+      <c r="J16" s="1">
+        <v>20</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>66</v>
+      </c>
+      <c r="M16" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="N16" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>

--- a/GMM/Recommendations.xlsx
+++ b/GMM/Recommendations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaurij/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghazalerfani/Documents/GitHub/SocialMedia-Music/GMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71F41CB-F6C8-1448-BB34-2D76A4C8BC46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294DDFC5-31C8-674C-89DE-D8EBF435916B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{260C4063-3C72-0246-B3FA-539BF57E2F02}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{260C4063-3C72-0246-B3FA-539BF57E2F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Rock</t>
   </si>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>Post fewer negative tweets</t>
+  </si>
+  <si>
+    <t>GMM</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>NLP Findings:</t>
   </si>
 </sst>
 </file>
@@ -261,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -269,12 +281,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -291,13 +383,46 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -615,21 +740,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F869543-759E-8641-95B8-0B5959D3FF8D}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
@@ -683,7 +808,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -724,7 +849,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -763,7 +888,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -804,7 +929,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
@@ -837,264 +962,283 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="40.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" ht="35" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="40.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="52" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N9" s="11" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="J9" s="1">
-        <v>60.5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="L9" s="1">
-        <v>57.5</v>
-      </c>
-      <c r="M9" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="J10" s="13">
+        <v>60.5</v>
+      </c>
+      <c r="K10" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="L10" s="13">
+        <v>57.5</v>
+      </c>
+      <c r="M10" s="13">
+        <v>42.5</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I11" s="13">
         <v>83.3</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J11" s="13">
         <v>16.7</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
         <v>64.3</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M11" s="13">
         <v>35.700000000000003</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="35" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="52" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="1">
-        <v>55.6</v>
-      </c>
-      <c r="J11" s="1">
-        <v>44.4</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>50</v>
-      </c>
-      <c r="M11" s="1">
-        <v>50</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="13">
+        <v>55.6</v>
+      </c>
+      <c r="J12" s="13">
+        <v>44.4</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>50</v>
+      </c>
+      <c r="M12" s="13">
+        <v>50</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="13">
         <v>100</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
         <v>87.5</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M13" s="15">
         <v>11.7</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N13" s="16">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I15" s="13">
         <v>64.5</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J15" s="13">
         <v>35.5</v>
       </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
         <v>76.900000000000006</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M15" s="15">
         <v>19</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N15" s="16">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="H15" s="1" t="s">
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I16" s="13">
         <v>50</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J16" s="13">
         <v>50</v>
       </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
         <v>77.8</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M16" s="15">
         <v>22.2</v>
       </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="H16" s="1" t="s">
+      <c r="N16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="H17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I17" s="18">
         <v>80</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J17" s="18">
         <v>20</v>
       </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="K17" s="18">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18">
         <v>66</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M17" s="18">
         <v>30.9</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N17" s="19">
         <v>3.1</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/GMM/Recommendations.xlsx
+++ b/GMM/Recommendations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghazalerfani/Documents/GitHub/SocialMedia-Music/GMM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294DDFC5-31C8-674C-89DE-D8EBF435916B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A3D6EE-9D0E-4290-9ADA-3E8C2AC5AB47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{260C4063-3C72-0246-B3FA-539BF57E2F02}"/>
+    <workbookView xWindow="34935" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{260C4063-3C72-0246-B3FA-539BF57E2F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>Rock</t>
   </si>
@@ -227,6 +227,19 @@
   </si>
   <si>
     <t>NLP Findings:</t>
+  </si>
+  <si>
+    <t>(change type from text to photo, Twitter decrease SES from 2.01 to 1.88, Facebook decrease SES from 2.28 to 1.83)</t>
+  </si>
+  <si>
+    <t>Instagram: decrease last_7_days from 9 to 2 will increase SES from 0.52 to 0.60
+Twitter, Facebook: no changes</t>
+  </si>
+  <si>
+    <t>Same as DT</t>
+  </si>
+  <si>
+    <t>(Posting during 12am-6am, 6pm-12am or 12pm-6pm will have higher SES) So, try posting less in the morning</t>
   </si>
 </sst>
 </file>
@@ -386,44 +399,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,30 +756,30 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.6640625" style="1"/>
+    <col min="9" max="9" width="18.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -807,8 +820,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -848,8 +861,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -887,8 +900,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -928,8 +941,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
@@ -961,13 +974,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="40.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:14" ht="40.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" ht="40.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" ht="40.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>60</v>
@@ -982,7 +995,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="48" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -992,79 +1005,85 @@
       <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>35.799999999999997</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <v>60.5</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <v>3.7</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <v>57.5</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="11">
         <v>42.5</v>
       </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="11">
         <v>83.3</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <v>16.7</v>
       </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
         <v>64.3</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="11">
         <v>35.700000000000003</v>
       </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="52" x14ac:dyDescent="0.25">
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1077,163 +1096,169 @@
       <c r="D12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="11">
         <v>55.6</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <v>44.4</v>
       </c>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13">
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
         <v>50</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="11">
         <v>50</v>
       </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <v>100</v>
       </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>0</v>
-      </c>
-      <c r="L13" s="15">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
         <v>87.5</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="13">
         <v>11.7</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="H15" s="12" t="s">
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="11">
         <v>64.5</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="11">
         <v>35.5</v>
       </c>
-      <c r="K15" s="15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15">
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
         <v>76.900000000000006</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="13">
         <v>19</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="14">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="H16" s="12" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="11">
         <v>50</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="11">
         <v>50</v>
       </c>
-      <c r="K16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
         <v>77.8</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="13">
         <v>22.2</v>
       </c>
-      <c r="N16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="H17" s="17" t="s">
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="H17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="16">
         <v>80</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="16">
         <v>20</v>
       </c>
-      <c r="K17" s="18">
-        <v>0</v>
-      </c>
-      <c r="L17" s="18">
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
         <v>66</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="16">
         <v>30.9</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="17">
         <v>3.1</v>
       </c>
     </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>

--- a/GMM/Recommendations.xlsx
+++ b/GMM/Recommendations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oldye\Documents\CMU_2018\Summer2019\Capstone\Github\SocialMedia-Music\GMM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A3D6EE-9D0E-4290-9ADA-3E8C2AC5AB47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A06DEC4-650D-48F5-8134-6416BD5663A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34935" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{260C4063-3C72-0246-B3FA-539BF57E2F02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{260C4063-3C72-0246-B3FA-539BF57E2F02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>Rock</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Post fewer &amp; shorter posts</t>
   </si>
   <si>
-    <t>Calvin Harris: increase normalized post length from -1.48 to -1.21 would decrease normalized SES from 0.165 to 0.116</t>
-  </si>
-  <si>
     <t>% Postive FB Posts</t>
   </si>
   <si>
@@ -240,6 +237,21 @@
   </si>
   <si>
     <t>(Posting during 12am-6am, 6pm-12am or 12pm-6pm will have higher SES) So, try posting less in the morning</t>
+  </si>
+  <si>
+    <t>On Instagram, reducing the number of posts in the last 7 days from 9 to 2, resulting in the SES increasing from 0.52 to 0.60.  On Twitter and Facebook, changing the number of posts in the last 7 days had no meaningful impact.</t>
+  </si>
+  <si>
+    <t>Suggested Regression "plain English" explanation</t>
+  </si>
+  <si>
+    <t>Although the regression model showed an increase in photo mix leading to a decrease in SES, we don't feel this is a valid conclusion due to the (negative) R^2 of the models.</t>
+  </si>
+  <si>
+    <t>Same results as for Diego Torres</t>
+  </si>
+  <si>
+    <t>The 6am-12pm slot tended to lead to lower SES on average (Instagram).</t>
   </si>
 </sst>
 </file>
@@ -379,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -431,6 +443,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -755,31 +770,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F869543-759E-8641-95B8-0B5959D3FF8D}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F14:F15"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.625" style="1"/>
+    <col min="9" max="9" width="18.09765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.09765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -820,8 +835,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -861,8 +876,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -900,8 +915,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -941,8 +956,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
@@ -974,28 +989,31 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="40.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:14" ht="40.35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:14" ht="40.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" ht="54.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="48" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14" ht="47.4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1003,34 +1021,37 @@
         <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="N9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" ht="156" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>1</v>
@@ -1054,15 +1075,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="124.8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="11">
         <v>83.3</v>
@@ -1083,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="31.8" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1091,13 +1115,10 @@
         <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="11">
         <v>55.6</v>
@@ -1118,15 +1139,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="11">
         <v>100</v>
@@ -1147,12 +1171,15 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
@@ -1162,7 +1189,7 @@
       <c r="M14" s="13"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H15" s="10" t="s">
         <v>33</v>
       </c>
@@ -1185,9 +1212,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H16" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I16" s="11">
         <v>50</v>
@@ -1208,9 +1235,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.3">
       <c r="H17" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="16">
         <v>80</v>
@@ -1231,34 +1258,34 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -1272,5 +1299,6 @@
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>